--- a/biology/Médecine/Gyrus_temporal_supérieur/Gyrus_temporal_supérieur.xlsx
+++ b/biology/Médecine/Gyrus_temporal_supérieur/Gyrus_temporal_supérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gyrus_temporal_sup%C3%A9rieur</t>
+          <t>Gyrus_temporal_supérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le gyrus temporal supérieur T1 est un gyrus du lobe temporal du cortex cérébral. Il comporte deux parties :
 la face supérieure, pénétrant dans la profondeur de la scissure de Sylvius, non visible latéralement car recouverte par les lobes frontal et pariétal. Cette région s'enfonce profondément dans le cerveau jusqu'à l'insula. Elle est divisée en
